--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTUDh\Downloads\tyca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTUDh\Downloads\infinite-chess-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DB54FB-42C3-4695-939E-B48F2E1A9F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B542735E-0BAD-47AE-B927-2CE425225C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
@@ -609,20 +609,23 @@
   </sheetPr>
   <dimension ref="A1:AR930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="12" width="15.28515625" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="16" width="16.28515625" customWidth="1"/>
